--- a/date helper.xlsx
+++ b/date helper.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,6 +559,38 @@
         <v>44561</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
